--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -140,6 +140,10 @@
     <rPh sb="0" eb="2">
       <t>フクシュウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -220,10 +224,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -532,585 +538,648 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="8" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="C15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="C16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="C18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="C20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="C21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="C22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="C23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>3</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>4</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="C25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>5</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="C26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>6</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>7</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>8</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="C29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>9</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="C30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>10</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="C31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>11</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="C32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>12</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="C33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>13</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="C34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>14</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>15</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="C36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>16</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="C37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>17</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>18</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="C39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>19</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>20</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -144,6 +144,27 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>復習２</t>
+    <rPh sb="0" eb="2">
+      <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>復習３</t>
+    <rPh sb="0" eb="2">
+      <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>復習４</t>
+    <rPh sb="0" eb="2">
+      <t>フクシュウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -538,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -553,9 +574,15 @@
       <c r="C1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
@@ -585,7 +612,9 @@
       <c r="C3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -601,7 +630,9 @@
       <c r="C4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -617,7 +648,9 @@
       <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -633,7 +666,9 @@
       <c r="C6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -649,7 +684,9 @@
       <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -665,7 +702,9 @@
       <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -681,7 +720,9 @@
       <c r="C9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -695,7 +736,9 @@
         <v>8</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -711,7 +754,9 @@
       <c r="C11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -727,7 +772,9 @@
       <c r="C12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -743,7 +790,9 @@
       <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -759,7 +808,9 @@
       <c r="C14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -775,7 +826,9 @@
       <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -791,7 +844,9 @@
       <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -804,7 +859,9 @@
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -821,7 +878,9 @@
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -837,7 +896,9 @@
       <c r="C19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -853,7 +914,9 @@
       <c r="C20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -869,7 +932,9 @@
       <c r="C21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -885,7 +950,9 @@
       <c r="C22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -901,7 +968,9 @@
       <c r="C23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -914,8 +983,12 @@
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -931,7 +1004,9 @@
       <c r="C25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -947,7 +1022,9 @@
       <c r="C26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -960,8 +1037,12 @@
       <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -991,7 +1072,9 @@
       <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1023,7 +1106,9 @@
       <c r="C31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1039,7 +1124,9 @@
       <c r="C32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1071,7 +1158,9 @@
       <c r="C34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1101,7 +1190,9 @@
       <c r="C36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1117,7 +1208,9 @@
       <c r="C37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1147,7 +1240,9 @@
       <c r="C39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1174,8 +1269,12 @@
       <c r="B41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -596,7 +596,9 @@
       <c r="C2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -862,7 +864,9 @@
       <c r="C17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="45">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -599,7 +599,9 @@
       <c r="D2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -653,8 +655,12 @@
       <c r="D5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
@@ -672,7 +678,9 @@
         <v>41</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -707,7 +715,9 @@
       <c r="D8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -777,8 +787,12 @@
       <c r="D12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
@@ -795,7 +809,9 @@
       <c r="D13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -813,7 +829,9 @@
       <c r="D14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -885,7 +903,9 @@
       <c r="D18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -903,7 +923,9 @@
       <c r="D19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -957,7 +979,9 @@
       <c r="D22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -993,7 +1017,9 @@
       <c r="D24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1011,7 +1037,9 @@
       <c r="D25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1079,7 +1107,9 @@
       <c r="D29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1095,7 +1125,9 @@
         <v>41</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -1113,8 +1145,12 @@
       <c r="D31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
@@ -1165,7 +1201,9 @@
       <c r="D34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -1215,7 +1253,9 @@
       <c r="D37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1279,7 +1319,9 @@
       <c r="D41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1183,8 +1183,12 @@
         <v>41</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="45">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,8 +257,36 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -559,18 +587,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="8" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C1" s="4" t="s">
         <v>40</v>
       </c>
@@ -586,7 +614,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -606,7 +634,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -624,7 +652,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -637,12 +665,16 @@
       <c r="D4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -664,7 +696,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -677,14 +709,16 @@
       <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -697,12 +731,16 @@
       <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -722,7 +760,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -740,7 +778,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -756,7 +794,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -774,7 +812,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -796,7 +834,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -816,7 +854,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -836,7 +874,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -854,7 +892,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -872,7 +910,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -885,12 +923,14 @@
       <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -910,7 +950,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -930,7 +970,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -948,7 +988,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -966,7 +1006,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -986,7 +1026,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -1004,7 +1044,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -1024,7 +1064,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -1044,7 +1084,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -1057,12 +1097,16 @@
       <c r="D26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -1080,7 +1124,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>7</v>
       </c>
@@ -1094,7 +1138,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -1114,7 +1158,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>9</v>
       </c>
@@ -1132,7 +1176,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -1154,7 +1198,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>11</v>
       </c>
@@ -1172,7 +1216,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>12</v>
       </c>
@@ -1182,7 +1226,9 @@
       <c r="C33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E33" s="4" t="s">
         <v>41</v>
       </c>
@@ -1192,7 +1238,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>13</v>
       </c>
@@ -1212,21 +1258,27 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>15</v>
       </c>
@@ -1244,7 +1296,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>16</v>
       </c>
@@ -1260,11 +1312,13 @@
       <c r="E37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>17</v>
       </c>
@@ -1278,7 +1332,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>18</v>
       </c>
@@ -1296,7 +1350,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>19</v>
       </c>
@@ -1310,7 +1364,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>20</v>
       </c>

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="45">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -257,8 +257,36 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -559,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -619,8 +647,12 @@
       <c r="D3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
@@ -637,8 +669,12 @@
       <c r="D4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
@@ -677,7 +713,9 @@
       <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F6" s="4" t="s">
         <v>41</v>
       </c>
@@ -697,8 +735,12 @@
       <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
@@ -718,7 +760,9 @@
       <c r="E8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
@@ -735,8 +779,12 @@
       <c r="D9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
@@ -747,7 +795,9 @@
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>41</v>
       </c>
@@ -812,7 +862,9 @@
       <c r="E13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
@@ -832,7 +884,9 @@
       <c r="E14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
@@ -849,8 +903,12 @@
       <c r="D15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
@@ -867,8 +925,12 @@
       <c r="D16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
@@ -885,8 +947,12 @@
       <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
@@ -961,8 +1027,12 @@
       <c r="D21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
@@ -982,7 +1052,9 @@
       <c r="E22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
@@ -1040,7 +1112,9 @@
       <c r="E25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
@@ -1057,8 +1131,12 @@
       <c r="D26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
@@ -1075,7 +1153,9 @@
       <c r="D27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1087,9 +1167,15 @@
       <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1124,11 +1210,15 @@
       <c r="C30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
@@ -1167,8 +1257,12 @@
       <c r="D32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
@@ -1182,7 +1276,9 @@
       <c r="C33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E33" s="4" t="s">
         <v>41</v>
       </c>
@@ -1219,10 +1315,18 @@
       <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
@@ -1239,7 +1343,9 @@
       <c r="D36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1260,7 +1366,9 @@
       <c r="E37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
@@ -1291,7 +1399,9 @@
       <c r="D39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1303,8 +1413,12 @@
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -1326,7 +1440,9 @@
       <c r="E41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="46">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -162,6 +162,13 @@
   </si>
   <si>
     <t>復習４</t>
+    <rPh sb="0" eb="2">
+      <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>復習５</t>
     <rPh sb="0" eb="2">
       <t>フクシュウ</t>
     </rPh>
@@ -587,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -611,7 +618,9 @@
       <c r="F1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -675,7 +684,9 @@
       <c r="F4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -785,7 +796,9 @@
       <c r="F9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -909,7 +922,9 @@
       <c r="F15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -992,8 +1007,12 @@
       <c r="E19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1009,9 +1028,15 @@
       <c r="D20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1071,9 +1096,15 @@
       <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1092,7 +1123,9 @@
       <c r="E24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
@@ -1137,7 +1170,9 @@
       <c r="F26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1263,7 +1298,9 @@
       <c r="F32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1346,7 +1383,9 @@
       <c r="E36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="46">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -988,7 +988,9 @@
         <v>41</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="46">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -662,7 +662,9 @@
       <c r="F3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -752,7 +754,9 @@
       <c r="F7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -774,7 +778,9 @@
       <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -816,7 +822,9 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -856,7 +864,9 @@
       <c r="F12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -878,7 +888,9 @@
       <c r="F13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -900,7 +912,9 @@
       <c r="F14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -946,7 +960,9 @@
       <c r="F16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1060,7 +1076,9 @@
       <c r="F21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1082,7 +1100,9 @@
       <c r="F22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1128,7 +1148,9 @@
       <c r="F24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1256,7 +1278,9 @@
       <c r="F30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1278,7 +1302,9 @@
       <c r="F31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1324,7 +1350,9 @@
       <c r="F33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1388,7 +1416,9 @@
       <c r="F36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -1484,7 +1514,9 @@
       <c r="F41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H41" s="4"/>
     </row>
   </sheetData>

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="47">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -169,6 +169,13 @@
   </si>
   <si>
     <t>復習５</t>
+    <rPh sb="0" eb="2">
+      <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>復習６</t>
     <rPh sb="0" eb="2">
       <t>フクシュウ</t>
     </rPh>
@@ -595,7 +602,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -621,7 +631,9 @@
       <c r="G1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
@@ -665,7 +677,9 @@
       <c r="G3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
@@ -710,8 +724,12 @@
       <c r="F5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
@@ -732,8 +750,12 @@
       <c r="F6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
@@ -757,7 +779,9 @@
       <c r="G7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
@@ -781,7 +805,9 @@
       <c r="G8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
@@ -805,7 +831,9 @@
       <c r="G9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
@@ -867,7 +895,9 @@
       <c r="G12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
@@ -891,7 +921,9 @@
       <c r="G13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
@@ -915,7 +947,9 @@
       <c r="G14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
@@ -939,7 +973,9 @@
       <c r="G15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
@@ -963,7 +999,9 @@
       <c r="G16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
@@ -985,7 +1023,9 @@
         <v>41</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
@@ -1003,11 +1043,15 @@
       <c r="E18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
@@ -1031,7 +1075,9 @@
       <c r="G19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
@@ -1055,7 +1101,9 @@
       <c r="G20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
@@ -1079,7 +1127,9 @@
       <c r="G21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
@@ -1103,7 +1153,9 @@
       <c r="G22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
@@ -1127,7 +1179,9 @@
       <c r="G23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
@@ -1151,7 +1205,9 @@
       <c r="G24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
@@ -1172,8 +1228,12 @@
       <c r="F25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
@@ -1197,7 +1257,9 @@
       <c r="G26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
@@ -1215,7 +1277,9 @@
       <c r="E27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
@@ -1281,7 +1345,9 @@
       <c r="G30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
@@ -1305,7 +1371,9 @@
       <c r="G31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
@@ -1329,7 +1397,9 @@
       <c r="G32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="4"/>
+      <c r="H32" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
@@ -1353,7 +1423,9 @@
       <c r="G33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="4"/>
+      <c r="H33" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
@@ -1394,8 +1466,12 @@
       <c r="F35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
@@ -1419,7 +1495,9 @@
       <c r="G36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="4"/>
+      <c r="H36" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
@@ -1440,8 +1518,12 @@
       <c r="F37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
@@ -1450,10 +1532,18 @@
       <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
@@ -1473,7 +1563,9 @@
       <c r="E39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
@@ -1517,7 +1609,9 @@
       <c r="G41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="48">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -176,6 +176,13 @@
   </si>
   <si>
     <t>復習６</t>
+    <rPh sb="0" eb="2">
+      <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>復習７</t>
     <rPh sb="0" eb="2">
       <t>フクシュウ</t>
     </rPh>
@@ -256,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -267,6 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -599,13 +607,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -615,7 +623,7 @@
     <col min="3" max="8" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C1" s="4" t="s">
         <v>40</v>
       </c>
@@ -634,8 +642,11 @@
       <c r="H1" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -654,8 +665,9 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -680,8 +692,11 @@
       <c r="H3" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -704,8 +719,11 @@
         <v>41</v>
       </c>
       <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -730,8 +748,9 @@
       <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -756,8 +775,9 @@
       <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -782,8 +802,9 @@
       <c r="H7" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -808,8 +829,11 @@
       <c r="H8" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -834,8 +858,11 @@
       <c r="H9" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I9" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -854,8 +881,9 @@
         <v>41</v>
       </c>
       <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -872,8 +900,9 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -898,8 +927,11 @@
       <c r="H12" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -924,8 +956,11 @@
       <c r="H13" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -950,8 +985,11 @@
       <c r="H14" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1014,11 @@
       <c r="H15" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1002,8 +1043,11 @@
       <c r="H16" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I16" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1026,8 +1070,11 @@
       <c r="H17" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I17" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1052,8 +1099,11 @@
       <c r="H18" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I18" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1078,8 +1128,11 @@
       <c r="H19" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1104,8 +1157,11 @@
       <c r="H20" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I20" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1130,8 +1186,9 @@
       <c r="H21" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -1156,8 +1213,9 @@
       <c r="H22" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -1182,8 +1240,11 @@
       <c r="H23" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -1208,8 +1269,9 @@
       <c r="H24" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -1234,8 +1296,9 @@
       <c r="H25" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -1260,8 +1323,11 @@
       <c r="H26" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I26" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -1282,8 +1348,9 @@
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>7</v>
       </c>
@@ -1302,8 +1369,9 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -1322,8 +1390,9 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>9</v>
       </c>
@@ -1348,8 +1417,11 @@
       <c r="H30" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I30" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -1374,8 +1446,11 @@
       <c r="H31" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I31" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>11</v>
       </c>
@@ -1400,8 +1475,11 @@
       <c r="H32" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I32" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>12</v>
       </c>
@@ -1426,8 +1504,11 @@
       <c r="H33" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I33" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>13</v>
       </c>
@@ -1446,8 +1527,9 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>14</v>
       </c>
@@ -1472,8 +1554,11 @@
       <c r="H35" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I35" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>15</v>
       </c>
@@ -1498,8 +1583,11 @@
       <c r="H36" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I36" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>16</v>
       </c>
@@ -1524,8 +1612,11 @@
       <c r="H37" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I37" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>17</v>
       </c>
@@ -1546,8 +1637,9 @@
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>18</v>
       </c>
@@ -1568,8 +1660,9 @@
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>19</v>
       </c>
@@ -1586,8 +1679,9 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>20</v>
       </c>
@@ -1612,6 +1706,7 @@
       <c r="H41" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="I41" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="49">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -183,6 +183,13 @@
   </si>
   <si>
     <t>復習７</t>
+    <rPh sb="0" eb="2">
+      <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>復習８</t>
     <rPh sb="0" eb="2">
       <t>フクシュウ</t>
     </rPh>
@@ -607,13 +614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -623,7 +630,7 @@
     <col min="3" max="8" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="4" t="s">
         <v>40</v>
       </c>
@@ -645,8 +652,11 @@
       <c r="I1" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -665,9 +675,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -695,8 +710,11 @@
       <c r="I3" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -718,12 +736,17 @@
       <c r="G4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="I4" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -748,9 +771,14 @@
       <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -775,9 +803,14 @@
       <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -803,8 +836,9 @@
         <v>41</v>
       </c>
       <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -832,8 +866,11 @@
       <c r="I8" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -861,8 +898,9 @@
       <c r="I9" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -882,8 +920,9 @@
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -901,8 +940,9 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -930,8 +970,9 @@
       <c r="I12" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -959,8 +1000,11 @@
       <c r="I13" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -988,8 +1032,11 @@
       <c r="I14" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1017,8 +1064,9 @@
       <c r="I15" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1046,8 +1094,9 @@
       <c r="I16" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1073,8 +1122,9 @@
       <c r="I17" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1102,8 +1152,9 @@
       <c r="I18" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1131,8 +1182,9 @@
       <c r="I19" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1160,8 +1212,9 @@
       <c r="I20" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1186,9 +1239,12 @@
       <c r="H21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -1214,8 +1270,11 @@
         <v>41</v>
       </c>
       <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J22" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -1243,8 +1302,11 @@
       <c r="I23" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -1270,8 +1332,11 @@
         <v>41</v>
       </c>
       <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J24" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -1297,8 +1362,9 @@
         <v>41</v>
       </c>
       <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -1326,8 +1392,11 @@
       <c r="I26" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J26" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -1349,8 +1418,9 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>7</v>
       </c>
@@ -1366,12 +1436,19 @@
       <c r="E28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -1387,12 +1464,17 @@
       <c r="E29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>9</v>
       </c>
@@ -1420,8 +1502,11 @@
       <c r="I30" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J30" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -1449,8 +1534,11 @@
       <c r="I31" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J31" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>11</v>
       </c>
@@ -1478,8 +1566,11 @@
       <c r="I32" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J32" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>12</v>
       </c>
@@ -1507,8 +1598,11 @@
       <c r="I33" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J33" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>13</v>
       </c>
@@ -1528,8 +1622,9 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>14</v>
       </c>
@@ -1557,8 +1652,11 @@
       <c r="I35" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J35" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>15</v>
       </c>
@@ -1586,8 +1684,11 @@
       <c r="I36" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J36" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>16</v>
       </c>
@@ -1615,8 +1716,11 @@
       <c r="I37" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J37" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>17</v>
       </c>
@@ -1635,11 +1739,14 @@
       <c r="F38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H38" s="4"/>
       <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>18</v>
       </c>
@@ -1661,8 +1768,9 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>19</v>
       </c>
@@ -1680,8 +1788,9 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>20</v>
       </c>
@@ -1707,6 +1816,7 @@
         <v>41</v>
       </c>
       <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="49">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -620,7 +620,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -898,7 +898,9 @@
       <c r="I9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="49">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -617,10 +617,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -972,7 +972,9 @@
       <c r="I12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
@@ -1066,7 +1068,9 @@
       <c r="I15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="6"/>
+      <c r="J15" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
@@ -1154,7 +1158,9 @@
       <c r="I18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="6"/>
+      <c r="J18" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
@@ -1244,7 +1250,9 @@
       <c r="I21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="6"/>
+      <c r="J21" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
@@ -1817,8 +1825,12 @@
       <c r="H41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="I41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="復習" sheetId="1" r:id="rId1"/>
+    <sheet name="新規演習" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="50">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -192,6 +193,13 @@
     <t>復習８</t>
     <rPh sb="0" eb="2">
       <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>演習２</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -222,15 +230,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -266,11 +280,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -282,6 +429,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -617,10 +795,10 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -631,28 +809,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -660,10 +838,10 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -678,7 +856,7 @@
       <c r="I2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -689,7 +867,7 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -710,7 +888,7 @@
       <c r="I3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -721,7 +899,7 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -742,7 +920,7 @@
       <c r="I4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -753,7 +931,7 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -774,7 +952,7 @@
       <c r="I5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -785,7 +963,7 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -806,7 +984,7 @@
       <c r="I6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -814,10 +992,10 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -836,7 +1014,9 @@
         <v>41</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
@@ -845,7 +1025,7 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -866,7 +1046,7 @@
       <c r="I8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -877,7 +1057,7 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -898,7 +1078,7 @@
       <c r="I9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -906,10 +1086,10 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -922,16 +1102,16 @@
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -942,7 +1122,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
@@ -951,7 +1131,7 @@
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -972,7 +1152,7 @@
       <c r="I12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -983,7 +1163,7 @@
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1004,7 +1184,7 @@
       <c r="I13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1015,7 +1195,7 @@
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1036,7 +1216,7 @@
       <c r="I14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1047,7 +1227,7 @@
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1068,7 +1248,7 @@
       <c r="I15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1079,7 +1259,7 @@
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1100,16 +1280,18 @@
       <c r="I16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="6"/>
+      <c r="J16" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1128,7 +1310,7 @@
       <c r="I17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="6"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
@@ -1137,7 +1319,7 @@
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1158,7 +1340,7 @@
       <c r="I18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1166,10 +1348,10 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1190,16 +1372,16 @@
       <c r="I19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="6"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1220,7 +1402,7 @@
       <c r="I20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="6"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
@@ -1229,7 +1411,7 @@
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1250,7 +1432,7 @@
       <c r="I21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1261,7 +1443,7 @@
       <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1279,8 +1461,10 @@
       <c r="H22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="4" t="s">
+      <c r="I22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1291,7 +1475,7 @@
       <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1312,7 +1496,7 @@
       <c r="I23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1323,7 +1507,7 @@
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -1341,8 +1525,10 @@
       <c r="H24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="4" t="s">
+      <c r="I24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1350,10 +1536,10 @@
       <c r="A25" s="1">
         <v>4</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -1372,7 +1558,7 @@
         <v>41</v>
       </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
@@ -1381,7 +1567,7 @@
       <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -1402,7 +1588,7 @@
       <c r="I26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1410,10 +1596,10 @@
       <c r="A27" s="1">
         <v>6</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -1428,16 +1614,16 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>7</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1456,16 +1642,16 @@
         <v>41</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>8</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -1482,7 +1668,7 @@
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
@@ -1491,7 +1677,7 @@
       <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -1512,7 +1698,7 @@
       <c r="I30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1523,7 +1709,7 @@
       <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -1544,7 +1730,7 @@
       <c r="I31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1555,7 +1741,7 @@
       <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -1576,7 +1762,7 @@
       <c r="I32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1587,7 +1773,7 @@
       <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -1608,7 +1794,7 @@
       <c r="I33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1616,10 +1802,10 @@
       <c r="A34" s="1">
         <v>13</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -1632,7 +1818,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
@@ -1641,7 +1827,7 @@
       <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -1662,7 +1848,7 @@
       <c r="I35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1673,7 +1859,7 @@
       <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -1694,7 +1880,7 @@
       <c r="I36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1705,7 +1891,7 @@
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -1726,7 +1912,7 @@
       <c r="I37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J37" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1734,10 +1920,10 @@
       <c r="A38" s="1">
         <v>17</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -1754,16 +1940,16 @@
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>18</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -1778,16 +1964,16 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>19</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -1798,39 +1984,428 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>20</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="C41" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>9</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="17"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>10</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>11</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>12</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="17"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>13</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>14</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="17"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>15</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="17"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>16</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="17"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>17</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="17"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>18</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="17"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>19</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="17"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>20</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="50">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -417,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -460,6 +460,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -798,7 +800,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -838,7 +840,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -850,9 +852,15 @@
       <c r="E2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="I2" s="4" t="s">
         <v>41</v>
       </c>
@@ -1648,7 +1656,7 @@
       <c r="A29" s="1">
         <v>8</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -1666,9 +1674,15 @@
       <c r="G29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="12"/>
+      <c r="H29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1">

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="50">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -244,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -413,11 +413,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -462,6 +471,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -794,13 +806,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1000,7 +1012,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1021,7 +1033,9 @@
       <c r="H7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="J7" s="11" t="s">
         <v>41</v>
       </c>
@@ -1292,7 +1306,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1320,7 +1334,7 @@
       </c>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1352,7 +1366,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1382,7 +1396,7 @@
       </c>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1412,7 +1426,7 @@
       </c>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1444,7 +1458,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -1476,7 +1490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -1508,7 +1522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -1540,7 +1554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -1568,7 +1582,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -1600,7 +1614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -1624,7 +1638,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>7</v>
       </c>
@@ -1651,8 +1665,9 @@
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K28" s="22"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -1684,7 +1699,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>9</v>
       </c>
@@ -1716,7 +1731,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -1748,7 +1763,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>11</v>
       </c>

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="51">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -201,6 +201,10 @@
     <rPh sb="0" eb="2">
       <t>エンシュウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -426,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -472,6 +476,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -809,10 +816,10 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1117,8 +1124,12 @@
       <c r="D10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G10" s="4" t="s">
         <v>41</v>
       </c>
@@ -1310,7 +1321,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -1325,14 +1336,18 @@
       <c r="F17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H17" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
@@ -1370,7 +1385,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -1394,7 +1409,9 @@
       <c r="I19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="J19" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
@@ -1558,7 +1575,7 @@
       <c r="A25" s="1">
         <v>4</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -1579,8 +1596,12 @@
       <c r="H25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="12"/>
+      <c r="I25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
@@ -1633,8 +1654,12 @@
       <c r="F27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="I27" s="6"/>
       <c r="J27" s="12"/>
     </row>
@@ -1642,7 +1667,7 @@
       <c r="A28" s="1">
         <v>7</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -1663,8 +1688,12 @@
       <c r="H28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="12"/>
+      <c r="I28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -1967,7 +1996,9 @@
       <c r="G38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="4"/>
+      <c r="H38" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="I38" s="6"/>
       <c r="J38" s="12"/>
     </row>
@@ -1990,10 +2021,16 @@
       <c r="F39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H39" s="4"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="12"/>
+      <c r="I39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
@@ -2062,7 +2099,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2146,7 +2183,9 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1">

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="51">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -819,7 +819,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1134,7 +1134,9 @@
         <v>41</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -1150,9 +1152,15 @@
       <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="6"/>
       <c r="J11" s="12"/>
@@ -1417,7 +1425,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -1441,7 +1449,9 @@
       <c r="I20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="J20" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
@@ -1978,7 +1988,7 @@
       <c r="A38" s="1">
         <v>17</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -1999,8 +2009,12 @@
       <c r="H38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="12"/>
+      <c r="I38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
@@ -2096,10 +2110,10 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2120,7 +2134,9 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
@@ -2129,7 +2145,9 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
@@ -2138,7 +2156,9 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
@@ -2165,7 +2185,9 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
@@ -2212,7 +2234,9 @@
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
@@ -2230,7 +2254,9 @@
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
@@ -2239,7 +2265,9 @@
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
@@ -2266,7 +2294,9 @@
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
@@ -2284,7 +2314,9 @@
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
@@ -2329,7 +2361,9 @@
       <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
@@ -2374,7 +2408,9 @@
       <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
@@ -2392,7 +2428,9 @@
       <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
@@ -2401,7 +2439,9 @@
       <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
@@ -2419,7 +2459,9 @@
       <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
@@ -2437,7 +2479,9 @@
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1">

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="復習" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -197,10 +197,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>演習２</t>
-    <rPh sb="0" eb="2">
-      <t>エンシュウ</t>
-    </rPh>
+    <t>ガチャ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -430,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -470,7 +467,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -815,11 +811,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -859,7 +855,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1019,7 +1015,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1115,7 +1111,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -1143,7 +1139,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1329,7 +1325,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -1393,7 +1389,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -1425,7 +1421,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -1585,7 +1581,7 @@
       <c r="A25" s="1">
         <v>4</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -1649,7 +1645,7 @@
       <c r="A27" s="1">
         <v>6</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -1677,7 +1673,7 @@
       <c r="A28" s="1">
         <v>7</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -1704,13 +1700,13 @@
       <c r="J28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K28" s="22"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>8</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -1870,7 +1866,7 @@
       <c r="A34" s="1">
         <v>13</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -1988,7 +1984,7 @@
       <c r="A38" s="1">
         <v>17</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -2020,7 +2016,7 @@
       <c r="A39" s="1">
         <v>18</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -2050,7 +2046,7 @@
       <c r="A40" s="1">
         <v>19</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -2109,17 +2105,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -2134,7 +2131,7 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2145,7 +2142,7 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2156,7 +2153,7 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2167,7 +2164,7 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
@@ -2176,7 +2173,9 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
@@ -2185,7 +2184,7 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2196,7 +2195,7 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
@@ -2205,7 +2204,7 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2216,7 +2215,7 @@
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
@@ -2225,7 +2224,9 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
@@ -2234,7 +2235,7 @@
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2245,7 +2246,9 @@
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
@@ -2254,7 +2257,7 @@
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2265,7 +2268,7 @@
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2276,7 +2279,9 @@
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
@@ -2285,7 +2290,7 @@
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
@@ -2294,7 +2299,7 @@
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2305,7 +2310,9 @@
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
@@ -2314,9 +2321,7 @@
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>50</v>
-      </c>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
@@ -2325,7 +2330,7 @@
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
@@ -2334,7 +2339,9 @@
       <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
@@ -2343,7 +2350,9 @@
       <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
@@ -2352,7 +2361,7 @@
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
@@ -2361,7 +2370,7 @@
       <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2372,7 +2381,9 @@
       <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
@@ -2381,7 +2392,7 @@
       <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
@@ -2390,7 +2401,7 @@
       <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
@@ -2399,7 +2410,7 @@
       <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
@@ -2408,7 +2419,7 @@
       <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2419,7 +2430,9 @@
       <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
@@ -2428,7 +2441,7 @@
       <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2439,7 +2452,7 @@
       <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2450,7 +2463,7 @@
       <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
@@ -2459,7 +2472,7 @@
       <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2470,7 +2483,7 @@
       <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="22"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
@@ -2479,7 +2492,7 @@
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2490,7 +2503,7 @@
       <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="22"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
@@ -2499,7 +2512,7 @@
       <c r="B39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
@@ -2508,7 +2521,7 @@
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
@@ -2517,7 +2530,7 @@
       <c r="B41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="51">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -2109,7 +2109,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2530,7 +2530,9 @@
       <c r="B41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="22"/>
+      <c r="C41" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="51">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -2106,10 +2106,10 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2195,7 +2195,9 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="51">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -2109,7 +2109,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2323,7 +2323,9 @@
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1">

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="52">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -202,6 +202,16 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2103,28 +2113,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="5"/>
+    <col min="3" max="4" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C1" s="16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2134,8 +2147,9 @@
       <c r="C2" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2145,8 +2159,9 @@
       <c r="C3" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2156,8 +2171,9 @@
       <c r="C4" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2165,8 +2181,11 @@
         <v>3</v>
       </c>
       <c r="C5" s="22"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2176,8 +2195,9 @@
       <c r="C6" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2187,8 +2207,11 @@
       <c r="C7" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2198,8 +2221,9 @@
       <c r="C8" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2209,8 +2233,11 @@
       <c r="C9" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2218,8 +2245,9 @@
         <v>8</v>
       </c>
       <c r="C10" s="22"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2229,8 +2257,9 @@
       <c r="C11" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2240,8 +2269,9 @@
       <c r="C12" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2251,8 +2281,9 @@
       <c r="C13" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2262,8 +2293,9 @@
       <c r="C14" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2273,8 +2305,9 @@
       <c r="C15" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2284,8 +2317,9 @@
       <c r="C16" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2293,8 +2327,9 @@
         <v>15</v>
       </c>
       <c r="C17" s="22"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2304,8 +2339,11 @@
       <c r="C18" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2315,8 +2353,9 @@
       <c r="C19" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2326,8 +2365,11 @@
       <c r="C20" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2335,8 +2377,9 @@
         <v>19</v>
       </c>
       <c r="C21" s="22"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21" s="22"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -2346,8 +2389,9 @@
       <c r="C22" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -2357,8 +2401,11 @@
       <c r="C23" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D23" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -2366,8 +2413,9 @@
         <v>22</v>
       </c>
       <c r="C24" s="22"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24" s="22"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -2377,8 +2425,9 @@
       <c r="C25" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -2388,8 +2437,9 @@
       <c r="C26" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -2397,8 +2447,9 @@
         <v>25</v>
       </c>
       <c r="C27" s="22"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>7</v>
       </c>
@@ -2406,8 +2457,9 @@
         <v>26</v>
       </c>
       <c r="C28" s="22"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -2415,8 +2467,9 @@
         <v>27</v>
       </c>
       <c r="C29" s="22"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>9</v>
       </c>
@@ -2426,8 +2479,11 @@
       <c r="C30" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D30" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -2437,8 +2493,9 @@
       <c r="C31" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>11</v>
       </c>
@@ -2448,8 +2505,9 @@
       <c r="C32" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>12</v>
       </c>
@@ -2459,8 +2517,11 @@
       <c r="C33" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>13</v>
       </c>
@@ -2468,8 +2529,9 @@
         <v>32</v>
       </c>
       <c r="C34" s="22"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>14</v>
       </c>
@@ -2479,8 +2541,9 @@
       <c r="C35" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35" s="22"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>15</v>
       </c>
@@ -2488,8 +2551,9 @@
         <v>34</v>
       </c>
       <c r="C36" s="22"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D36" s="22"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>16</v>
       </c>
@@ -2499,8 +2563,9 @@
       <c r="C37" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D37" s="22"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>17</v>
       </c>
@@ -2508,8 +2573,9 @@
         <v>36</v>
       </c>
       <c r="C38" s="22"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D38" s="22"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>18</v>
       </c>
@@ -2517,8 +2583,9 @@
         <v>37</v>
       </c>
       <c r="C39" s="22"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D39" s="22"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>19</v>
       </c>
@@ -2526,8 +2593,9 @@
         <v>38</v>
       </c>
       <c r="C40" s="22"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D40" s="22"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>20</v>
       </c>
@@ -2537,6 +2605,7 @@
       <c r="C41" s="22" t="s">
         <v>50</v>
       </c>
+      <c r="D41" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/課題/課題提出状況.xlsx
+++ b/課題/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="52">
   <si>
     <t>磯野　裕貴</t>
   </si>
@@ -2115,11 +2115,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2147,7 +2147,9 @@
       <c r="C2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
@@ -2159,7 +2161,9 @@
       <c r="C3" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
@@ -2171,7 +2175,9 @@
       <c r="C4" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
@@ -2180,7 +2186,9 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="D5" s="22" t="s">
         <v>50</v>
       </c>
@@ -2195,7 +2203,9 @@
       <c r="C6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
@@ -2221,7 +2231,9 @@
       <c r="C8" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
@@ -2257,7 +2269,9 @@
       <c r="C11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
@@ -2269,7 +2283,9 @@
       <c r="C12" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
@@ -2281,7 +2297,9 @@
       <c r="C13" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
@@ -2377,7 +2395,9 @@
         <v>19</v>
       </c>
       <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
@@ -2413,7 +2433,9 @@
         <v>22</v>
       </c>
       <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
@@ -2437,7 +2459,9 @@
       <c r="C26" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
@@ -2493,7 +2517,9 @@
       <c r="C31" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
@@ -2505,7 +2531,9 @@
       <c r="C32" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
@@ -2541,7 +2569,9 @@
       <c r="C35" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="22"/>
+      <c r="D35" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
@@ -2572,7 +2602,9 @@
       <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="22"/>
+      <c r="C38" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="D38" s="22"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
@@ -2582,7 +2614,9 @@
       <c r="B39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="22"/>
+      <c r="C39" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="D39" s="22"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -2605,7 +2639,9 @@
       <c r="C41" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="22"/>
+      <c r="D41" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
